--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/53/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/53/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5855855855855856</v>
+        <v>0.3412341234123413</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.850850850851</v>
+        <v>447.3547354735474</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05905905905905906</v>
+        <v>0.009630963096309631</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9039039039039038</v>
+        <v>0.0109010901090109</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.03203203203203</v>
+        <v>1727.132713271327</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.8168168168169</v>
+        <v>709.2709270927093</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>621.6216216216217</v>
+        <v>489.1602160216021</v>
       </c>
     </row>
   </sheetData>
